--- a/Desarrollo/Artemis/Gestión y Negocio/Artemis-CP.xlsx
+++ b/Desarrollo/Artemis/Gestión y Negocio/Artemis-CP.xlsx
@@ -235,7 +235,7 @@
     <t>Edward, Mauricio</t>
   </si>
   <si>
-    <t>Hito #2: 2/12/2020</t>
+    <t>Hito #2: 02/12/2020</t>
   </si>
   <si>
     <t>Codificación</t>
@@ -324,7 +324,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -392,6 +392,11 @@
       <name val="Barlow"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Barlow"/>
+    </font>
+    <font>
       <i/>
       <color theme="1"/>
       <name val="Barlow"/>
@@ -434,7 +439,7 @@
       <name val="Barlow"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,12 +492,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE6FAFD"/>
         <bgColor rgb="FFE6FAFD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF76A5AF"/>
-        <bgColor rgb="FF76A5AF"/>
       </patternFill>
     </fill>
     <fill>
@@ -558,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -625,118 +624,124 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="11" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="12" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1160,7 +1165,9 @@
       <c r="P13" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="Q13" s="22"/>
+      <c r="Q13" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="B14" s="23" t="s">
@@ -1182,7 +1189,9 @@
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
       <c r="P14" s="21"/>
-      <c r="Q14" s="22"/>
+      <c r="Q14" s="25">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" s="23" t="s">
@@ -1204,14 +1213,16 @@
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
       <c r="P15" s="21"/>
-      <c r="Q15" s="22"/>
+      <c r="Q15" s="25">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="16">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="19"/>
-      <c r="D16" s="26"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="24" t="s">
         <v>37</v>
       </c>
@@ -1226,14 +1237,16 @@
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
       <c r="P16" s="21"/>
-      <c r="Q16" s="22"/>
+      <c r="Q16" s="25">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="26" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="19"/>
-      <c r="D17" s="26"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="24" t="s">
         <v>37</v>
       </c>
@@ -1248,14 +1261,16 @@
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
       <c r="P17" s="21"/>
-      <c r="Q17" s="22"/>
+      <c r="Q17" s="25">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="19"/>
-      <c r="D18" s="26"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="24" t="s">
         <v>37</v>
       </c>
@@ -1270,7 +1285,9 @@
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
       <c r="P18" s="21"/>
-      <c r="Q18" s="22"/>
+      <c r="Q18" s="25">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="B19" s="18" t="s">
@@ -1294,7 +1311,9 @@
       <c r="P19" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="Q19" s="22"/>
+      <c r="Q19" s="25">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="B20" s="18" t="s">
@@ -1320,56 +1339,58 @@
       <c r="P20" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="Q20" s="22"/>
+      <c r="Q20" s="25">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="21">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="30"/>
     </row>
     <row r="22">
       <c r="B22" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
     </row>
     <row r="23">
       <c r="B23" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="19"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1382,20 +1403,22 @@
       <c r="P23" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="Q23" s="22"/>
+      <c r="Q23" s="25">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="24">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="19"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38" t="s">
+      <c r="D24" s="38"/>
+      <c r="E24" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="39"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="26"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
@@ -1404,18 +1427,20 @@
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
       <c r="P24" s="21"/>
-      <c r="Q24" s="22"/>
+      <c r="Q24" s="25">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="25">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="37" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="19"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="26"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
@@ -1424,18 +1449,20 @@
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
       <c r="P25" s="21"/>
-      <c r="Q25" s="22"/>
+      <c r="Q25" s="25">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="26">
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="37" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="19"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="26"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="27"/>
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
@@ -1444,18 +1471,20 @@
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
       <c r="P26" s="21"/>
-      <c r="Q26" s="22"/>
+      <c r="Q26" s="25">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="27">
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="26"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="27"/>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
@@ -1464,18 +1493,20 @@
       <c r="N27" s="19"/>
       <c r="O27" s="19"/>
       <c r="P27" s="21"/>
-      <c r="Q27" s="22"/>
+      <c r="Q27" s="25">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="28">
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="41" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="26"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="27"/>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
@@ -1484,18 +1515,20 @@
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
       <c r="P28" s="21"/>
-      <c r="Q28" s="22"/>
+      <c r="Q28" s="25">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="29">
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="43" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="26"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="27"/>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
@@ -1504,18 +1537,20 @@
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
       <c r="P29" s="21"/>
-      <c r="Q29" s="22"/>
+      <c r="Q29" s="25">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="30">
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="41" t="s">
         <v>55</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="26"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="27"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
@@ -1524,18 +1559,20 @@
       <c r="N30" s="19"/>
       <c r="O30" s="19"/>
       <c r="P30" s="21"/>
-      <c r="Q30" s="22"/>
+      <c r="Q30" s="44">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="31">
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="41" t="s">
         <v>56</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="26"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="27"/>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
@@ -1544,18 +1581,20 @@
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
       <c r="P31" s="21"/>
-      <c r="Q31" s="22"/>
+      <c r="Q31" s="25">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="32">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="41" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="26"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="27"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
@@ -1564,18 +1603,20 @@
       <c r="N32" s="19"/>
       <c r="O32" s="19"/>
       <c r="P32" s="21"/>
-      <c r="Q32" s="22"/>
+      <c r="Q32" s="25">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="33">
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="41" t="s">
         <v>58</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="26"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="27"/>
       <c r="I33" s="19"/>
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
@@ -1584,18 +1625,20 @@
       <c r="N33" s="19"/>
       <c r="O33" s="19"/>
       <c r="P33" s="21"/>
-      <c r="Q33" s="22"/>
+      <c r="Q33" s="25">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="34">
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="41" t="s">
         <v>59</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="26"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="27"/>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
@@ -1604,18 +1647,20 @@
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="21"/>
-      <c r="Q34" s="22"/>
+      <c r="Q34" s="25">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="35">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="41" t="s">
         <v>60</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="26"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
@@ -1624,18 +1669,20 @@
       <c r="N35" s="19"/>
       <c r="O35" s="19"/>
       <c r="P35" s="21"/>
-      <c r="Q35" s="22"/>
+      <c r="Q35" s="25">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="36">
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="41" t="s">
         <v>61</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="26"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="27"/>
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
       <c r="K36" s="19"/>
@@ -1644,20 +1691,22 @@
       <c r="N36" s="19"/>
       <c r="O36" s="19"/>
       <c r="P36" s="21"/>
-      <c r="Q36" s="22"/>
+      <c r="Q36" s="25">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="37">
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="41" t="s">
         <v>62</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
-      <c r="E37" s="43" t="s">
+      <c r="E37" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="26"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="27"/>
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
@@ -1668,20 +1717,22 @@
       <c r="P37" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="Q37" s="22"/>
+      <c r="Q37" s="25">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="38">
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
-      <c r="E38" s="39" t="s">
+      <c r="E38" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="26"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="27"/>
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
@@ -1690,20 +1741,22 @@
       <c r="N38" s="19"/>
       <c r="O38" s="19"/>
       <c r="P38" s="21"/>
-      <c r="Q38" s="22"/>
+      <c r="Q38" s="25">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="39">
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
-      <c r="E39" s="39" t="s">
+      <c r="E39" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="26"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="27"/>
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
@@ -1712,7 +1765,9 @@
       <c r="N39" s="19"/>
       <c r="O39" s="19"/>
       <c r="P39" s="21"/>
-      <c r="Q39" s="22"/>
+      <c r="Q39" s="25">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="B40" s="21" t="s">
@@ -1720,10 +1775,10 @@
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="44"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="36"/>
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
       <c r="K40" s="19"/>
@@ -1734,7 +1789,9 @@
       <c r="P40" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="Q40" s="22"/>
+      <c r="Q40" s="22">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="41">
       <c r="B41" s="21" t="s">
@@ -1742,11 +1799,11 @@
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="35"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="36"/>
       <c r="J41" s="19"/>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
@@ -1756,7 +1813,9 @@
       <c r="P41" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="Q41" s="22"/>
+      <c r="Q41" s="22">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="42">
       <c r="B42" s="21" t="s">
@@ -1765,9 +1824,9 @@
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="45"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="46"/>
       <c r="I42" s="19"/>
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
@@ -1778,19 +1837,21 @@
       <c r="P42" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="Q42" s="22"/>
+      <c r="Q42" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="46"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="47"/>
       <c r="J43" s="19"/>
       <c r="K43" s="19"/>
       <c r="L43" s="19"/>
@@ -1798,7 +1859,9 @@
       <c r="N43" s="19"/>
       <c r="O43" s="19"/>
       <c r="P43" s="21"/>
-      <c r="Q43" s="22"/>
+      <c r="Q43" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="B44" s="21" t="s">
@@ -1807,10 +1870,10 @@
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="19"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="46"/>
       <c r="J44" s="19"/>
       <c r="K44" s="19"/>
       <c r="L44" s="19"/>
@@ -1820,47 +1883,49 @@
       <c r="P44" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="Q44" s="22"/>
+      <c r="Q44" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45">
-      <c r="B45" s="47" t="s">
+      <c r="B45" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="30"/>
     </row>
     <row r="46">
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="49"/>
-      <c r="P46" s="50"/>
-      <c r="Q46" s="50"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="51"/>
+      <c r="N46" s="51"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="52"/>
+      <c r="Q46" s="52"/>
     </row>
     <row r="47">
       <c r="B47" s="21" t="s">
@@ -1870,17 +1935,17 @@
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
       <c r="O47" s="19"/>
       <c r="P47" s="21"/>
-      <c r="Q47" s="22"/>
+      <c r="Q47" s="55"/>
     </row>
     <row r="48">
       <c r="B48" s="21" t="s">
@@ -1890,17 +1955,17 @@
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
       <c r="O48" s="19"/>
       <c r="P48" s="21"/>
-      <c r="Q48" s="22"/>
+      <c r="Q48" s="55"/>
     </row>
     <row r="49">
       <c r="B49" s="21" t="s">
@@ -1910,17 +1975,17 @@
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="52"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
       <c r="O49" s="19"/>
       <c r="P49" s="21"/>
-      <c r="Q49" s="22"/>
+      <c r="Q49" s="55"/>
     </row>
     <row r="50">
       <c r="B50" s="21" t="s">
@@ -1930,17 +1995,17 @@
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="52"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
       <c r="O50" s="19"/>
       <c r="P50" s="21"/>
-      <c r="Q50" s="22"/>
+      <c r="Q50" s="55"/>
     </row>
     <row r="51">
       <c r="B51" s="21" t="s">
@@ -1950,17 +2015,17 @@
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
       <c r="F51" s="19"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="53"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
       <c r="O51" s="19"/>
       <c r="P51" s="21"/>
-      <c r="Q51" s="22"/>
+      <c r="Q51" s="55"/>
     </row>
     <row r="52">
       <c r="B52" s="21" t="s">
@@ -1970,17 +2035,17 @@
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
       <c r="O52" s="19"/>
       <c r="P52" s="21"/>
-      <c r="Q52" s="22"/>
+      <c r="Q52" s="55"/>
     </row>
     <row r="53">
       <c r="B53" s="21" t="s">
@@ -1990,17 +2055,17 @@
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="51"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
       <c r="O53" s="19"/>
       <c r="P53" s="21"/>
-      <c r="Q53" s="22"/>
+      <c r="Q53" s="55"/>
     </row>
     <row r="54">
       <c r="B54" s="21" t="s">
@@ -2010,17 +2075,17 @@
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="51"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="53"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="54"/>
       <c r="O54" s="19"/>
       <c r="P54" s="21"/>
-      <c r="Q54" s="22"/>
+      <c r="Q54" s="55"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="B55" s="21" t="s">
@@ -2030,39 +2095,39 @@
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="52"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="53"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="54"/>
       <c r="O55" s="19"/>
-      <c r="P55" s="54" t="s">
+      <c r="P55" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="Q55" s="22"/>
+      <c r="Q55" s="55"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="B56" s="48" t="s">
+      <c r="B56" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="55"/>
-      <c r="M56" s="55"/>
-      <c r="N56" s="55"/>
-      <c r="O56" s="55"/>
-      <c r="P56" s="56"/>
-      <c r="Q56" s="56"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="57"/>
+      <c r="N56" s="57"/>
+      <c r="O56" s="57"/>
+      <c r="P56" s="58"/>
+      <c r="Q56" s="58"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="B57" s="21" t="s">
@@ -2072,119 +2137,119 @@
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="52"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="53"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="54"/>
+      <c r="N57" s="54"/>
       <c r="O57" s="19"/>
       <c r="P57" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="Q57" s="22"/>
+      <c r="Q57" s="55"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="37" t="s">
         <v>89</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
       <c r="F58" s="19"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="52"/>
-      <c r="M58" s="53"/>
-      <c r="N58" s="53"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="53"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="54"/>
       <c r="O58" s="19"/>
       <c r="P58" s="21"/>
-      <c r="Q58" s="22"/>
+      <c r="Q58" s="55"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="36" t="s">
+      <c r="B59" s="37" t="s">
         <v>90</v>
       </c>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="51"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="53"/>
-      <c r="N59" s="53"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="53"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="54"/>
       <c r="O59" s="19"/>
       <c r="P59" s="21"/>
-      <c r="Q59" s="22"/>
+      <c r="Q59" s="55"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="37" t="s">
         <v>91</v>
       </c>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="52"/>
-      <c r="L60" s="52"/>
-      <c r="M60" s="53"/>
-      <c r="N60" s="53"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="53"/>
+      <c r="M60" s="54"/>
+      <c r="N60" s="54"/>
       <c r="O60" s="19"/>
       <c r="P60" s="21"/>
-      <c r="Q60" s="22"/>
+      <c r="Q60" s="55"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="B61" s="47" t="s">
+      <c r="B61" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="28"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="28"/>
-      <c r="P61" s="28"/>
-      <c r="Q61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="30"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="B62" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="30"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="32"/>
-      <c r="Q62" s="32"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="33"/>
+      <c r="Q62" s="33"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="B63" s="21" t="s">
@@ -2199,14 +2264,14 @@
       <c r="I63" s="19"/>
       <c r="J63" s="19"/>
       <c r="K63" s="19"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="26"/>
-      <c r="N63" s="26"/>
-      <c r="O63" s="57"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="59"/>
       <c r="P63" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="Q63" s="22"/>
+      <c r="Q63" s="55"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="B64" s="21" t="s">
@@ -2220,82 +2285,82 @@
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="19"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="57"/>
-      <c r="N64" s="57"/>
-      <c r="O64" s="57"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="59"/>
+      <c r="N64" s="59"/>
+      <c r="O64" s="59"/>
       <c r="P64" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="Q64" s="22"/>
+      <c r="Q64" s="55"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="47" t="s">
+      <c r="B65" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="28"/>
-      <c r="P65" s="28"/>
-      <c r="Q65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="29"/>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="30"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="58"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="59"/>
-      <c r="M66" s="59"/>
-      <c r="N66" s="59"/>
-      <c r="O66" s="59"/>
-      <c r="P66" s="59"/>
-      <c r="Q66" s="59"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="61"/>
+      <c r="L66" s="61"/>
+      <c r="M66" s="61"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="61"/>
+      <c r="P66" s="61"/>
+      <c r="Q66" s="61"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="60" t="s">
+      <c r="B67" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
-      <c r="K67" s="59"/>
-      <c r="L67" s="59"/>
-      <c r="M67" s="59"/>
-      <c r="N67" s="59"/>
-      <c r="O67" s="59"/>
-      <c r="P67" s="59"/>
-      <c r="Q67" s="59"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="61"/>
+      <c r="K67" s="61"/>
+      <c r="L67" s="61"/>
+      <c r="M67" s="61"/>
+      <c r="N67" s="61"/>
+      <c r="O67" s="61"/>
+      <c r="P67" s="61"/>
+      <c r="Q67" s="61"/>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="B69" s="61" t="s">
+      <c r="B69" s="63" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="B70" s="62" t="s">
+      <c r="B70" s="64" t="s">
         <v>100</v>
       </c>
     </row>

--- a/Desarrollo/Artemis/Gestión y Negocio/Artemis-CP.xlsx
+++ b/Desarrollo/Artemis/Gestión y Negocio/Artemis-CP.xlsx
@@ -1,17 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ever\Desktop\UNMSM\GCS\ABSoftware\Desarrollo\Artemis\Gestión y Negocio\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC38666-D99F-49E3-AEC8-3CAED180F633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -31,12 +51,6 @@
     <t>Versión:</t>
   </si>
   <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>Subdivisión de Actividades en Tareas</t>
-  </si>
-  <si>
     <t>Fase:</t>
   </si>
   <si>
@@ -157,48 +171,6 @@
     <t>Análisis y Diseño</t>
   </si>
   <si>
-    <t>Elaboración del Documento de Especificación de Requisitos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Especificación de Casos de Uso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Requisitos funcionales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Requisitos no funcionales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Especificación de requisitos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Especificación de requisito 01: Crear cuenta en Artemis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Especificación de requisito 02: Iniciar y Cerrar sesión</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Especificación de requisito 03: Modificar perfil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Especificación de requisito 04: Subir una obra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Especificación de requisito 05: Comentar una obra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Especificación de requisito 06:Dar like/dislike a una obra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Especificación de requisito 7: Editar/actualizar obra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Especificación de requisito 8: Eliminar una obra propia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Especificación de requisito 9: Descargar versiones antiguas de las obras</t>
-  </si>
-  <si>
     <t>Elaboración de la marca</t>
   </si>
   <si>
@@ -217,9 +189,6 @@
     <t>Sebastian, Arian</t>
   </si>
   <si>
-    <t>Diseño de mock-ups de UI</t>
-  </si>
-  <si>
     <t>Elaboración del documento de Diseño de Software</t>
   </si>
   <si>
@@ -314,137 +283,177 @@
   </si>
   <si>
     <t>• = Alt + 7, 11pts</t>
+  </si>
+  <si>
+    <t>Especificación de requisito 01: Crear cuenta en Artemis</t>
+  </si>
+  <si>
+    <t>Especificación de requisito 02: Iniciar y Cerrar sesión</t>
+  </si>
+  <si>
+    <t>Especificación de requisito 03: Modificar perfil</t>
+  </si>
+  <si>
+    <t>Especificación de requisito 04: Subir una obra</t>
+  </si>
+  <si>
+    <t>Especificación de requisito 05: Comentar una obra</t>
+  </si>
+  <si>
+    <t>Especificación de requisito 06:Dar like/dislike a una obra</t>
+  </si>
+  <si>
+    <t>Especificación de requisito 07: Editar/actualizar obra</t>
+  </si>
+  <si>
+    <t>Especificación de requisito 08: Eliminar una obra propia</t>
+  </si>
+  <si>
+    <t>Especificación de requisito 09: Descargar versiones antiguas de las obras</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>Modificación post 1era revición</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="23">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="24.0"/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Oswald"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Barlow"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Barlow"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Barlow"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Barlow"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Oswald"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Barlow"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Barlow"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Barlow"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Docs-Barlow"/>
     </font>
     <font>
       <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Barlow"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Oswald"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Barlow"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Oswald"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Barlow"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Barlow"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -490,12 +499,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6FAFD"/>
-        <bgColor rgb="FFE6FAFD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB4A7D6"/>
         <bgColor rgb="FFB4A7D6"/>
       </patternFill>
@@ -508,7 +511,13 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -522,27 +531,34 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -552,215 +568,209 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="65">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="9" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="11" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -950,1420 +960,1430 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:Q1026"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.88"/>
-    <col customWidth="1" min="2" max="2" width="68.88"/>
-    <col customWidth="1" min="3" max="15" width="4.0"/>
-    <col customWidth="1" min="16" max="16" width="33.63"/>
-    <col customWidth="1" min="17" max="17" width="11.25"/>
-    <col customWidth="1" min="18" max="26" width="9.38"/>
+    <col min="1" max="1" width="6.9140625" customWidth="1"/>
+    <col min="2" max="2" width="68.9140625" customWidth="1"/>
+    <col min="3" max="15" width="4" customWidth="1"/>
+    <col min="16" max="16" width="33.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.25" customWidth="1"/>
+    <col min="18" max="26" width="9.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:17" ht="29.5">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+    </row>
+    <row r="2" spans="2:17" ht="14">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="54" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="4" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+    </row>
+    <row r="3" spans="2:17" ht="14">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="54" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="4" t="s">
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+    </row>
+    <row r="4" spans="2:17" ht="14">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+    </row>
+    <row r="5" spans="2:17" ht="15.5">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="7" t="str">
+      <c r="C5" s="56" t="str">
         <f>B12</f>
         <v>Gestión y Negocio</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="6" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+    </row>
+    <row r="6" spans="2:17" ht="15.5">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="2:17" ht="15.5">
+      <c r="B7" s="5"/>
+      <c r="C7" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="2:17" ht="14">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="C8" s="62">
         <f>DATE(2020,10,28)</f>
         <v>44132</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="4" t="s">
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+    </row>
+    <row r="9" spans="2:17" ht="14">
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="63">
+        <v>44216</v>
+      </c>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+    </row>
+    <row r="10" spans="2:17" ht="19.5" customHeight="1">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="2:17" ht="19.5" customHeight="1">
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="12">
-        <v>44216.0</v>
-      </c>
-    </row>
-    <row r="10" ht="19.5" customHeight="1">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-    </row>
-    <row r="11" ht="19.5" customHeight="1">
-      <c r="B11" s="14" t="s">
+      <c r="D11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="F11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="H11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="I11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="J11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="K11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="L11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="M11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="N11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="O11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="P11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="Q11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P11" s="14" t="s">
+    </row>
+    <row r="12" spans="2:17" ht="14.5">
+      <c r="B12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="14" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="2:17" ht="15.5">
+      <c r="B13" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="15" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="18" t="s">
+      <c r="E13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20" t="s">
+      <c r="Q13" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="14.5">
+      <c r="B14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="21" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="Q13" s="22">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="23" t="s">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="14.5">
+      <c r="B15" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="24" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="14.5">
+      <c r="B16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="25">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="23" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="14.5">
+      <c r="B17" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="25">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="26" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="14.5">
+      <c r="B18" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="25">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="26" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="15.5">
+      <c r="B19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="25">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="26" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="25">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="18" t="s">
+      <c r="Q19" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="15.5">
+      <c r="B20" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="21" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="Q19" s="25">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="18" t="s">
+      <c r="Q20" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="14">
+      <c r="B21" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="21" t="s">
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="60"/>
+    </row>
+    <row r="22" spans="2:17" ht="14">
+      <c r="B22" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="Q20" s="25">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="28" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+    </row>
+    <row r="23" spans="2:17" ht="15.5">
+      <c r="B23" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q23" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="15.5">
+      <c r="B24" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q24" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" ht="15.5">
+      <c r="B25" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q25" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="15.5">
+      <c r="B26" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q26" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="15.5">
+      <c r="B27" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q27" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" ht="15.5">
+      <c r="B28" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q28" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" ht="15.5">
+      <c r="B29" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q29" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" ht="15.5">
+      <c r="B30" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q30" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" ht="15.5">
+      <c r="B31" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q31" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" ht="15.5">
+      <c r="B32" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="30"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="15" t="s">
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="21" t="s">
+      <c r="Q32" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" ht="15.5">
+      <c r="B33" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q23" s="25">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="37" t="s">
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" ht="15.5">
+      <c r="B34" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="25">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="37" t="s">
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" ht="15.5">
+      <c r="B35" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="25">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="37" t="s">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="25">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="37" t="s">
+      <c r="Q35" s="15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" ht="15.5">
+      <c r="B36" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="25">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="41" t="s">
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="25">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="43" t="s">
+      <c r="Q36" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" ht="15.5">
+      <c r="B37" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="25">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="41" t="s">
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" ht="15.5">
+      <c r="B38" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="44">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="41" t="s">
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="25">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="41" t="s">
+      <c r="Q38" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" ht="14">
+      <c r="B39" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="25">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="41" t="s">
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="60"/>
+    </row>
+    <row r="40" spans="2:17" ht="14">
+      <c r="B40" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="25">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="41" t="s">
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+    </row>
+    <row r="41" spans="2:17" ht="15.5">
+      <c r="B41" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="25">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="41" t="s">
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="42"/>
+    </row>
+    <row r="42" spans="2:17" ht="15.5">
+      <c r="B42" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="25">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="41" t="s">
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="42"/>
+    </row>
+    <row r="43" spans="2:17" ht="15.5">
+      <c r="B43" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="25">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="41" t="s">
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="42"/>
+    </row>
+    <row r="44" spans="2:17" ht="15.5">
+      <c r="B44" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="21" t="s">
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="42"/>
+    </row>
+    <row r="45" spans="2:17" ht="15.5">
+      <c r="B45" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="Q37" s="25">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="37" t="s">
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="42"/>
+    </row>
+    <row r="46" spans="2:17" ht="15.5">
+      <c r="B46" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="25">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="37" t="s">
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="42"/>
+    </row>
+    <row r="47" spans="2:17" ht="15.5">
+      <c r="B47" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="25">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="21" t="s">
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="42"/>
+    </row>
+    <row r="48" spans="2:17" ht="15.5">
+      <c r="B48" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="21" t="s">
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="42"/>
+    </row>
+    <row r="49" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B49" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="Q40" s="22">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" s="21" t="s">
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q41" s="22">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" s="21" t="s">
+      <c r="Q49" s="42"/>
+    </row>
+    <row r="50" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B50" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="21" t="s">
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="45"/>
+    </row>
+    <row r="51" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B51" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="Q42" s="22">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="37" t="s">
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="22">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="21" t="s">
+      <c r="Q51" s="42"/>
+    </row>
+    <row r="52" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B52" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="21" t="s">
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="42"/>
+    </row>
+    <row r="53" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B53" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="Q44" s="22">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" s="49" t="s">
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="42"/>
+    </row>
+    <row r="54" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B54" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="30"/>
-    </row>
-    <row r="46">
-      <c r="B46" s="50" t="s">
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="42"/>
+    </row>
+    <row r="55" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B55" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="51"/>
-      <c r="O46" s="51"/>
-      <c r="P46" s="52"/>
-      <c r="Q46" s="52"/>
-    </row>
-    <row r="47">
-      <c r="B47" s="21" t="s">
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="59"/>
+      <c r="O55" s="59"/>
+      <c r="P55" s="59"/>
+      <c r="Q55" s="60"/>
+    </row>
+    <row r="56" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B56" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="55"/>
-    </row>
-    <row r="48">
-      <c r="B48" s="21" t="s">
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="23"/>
+      <c r="Q56" s="23"/>
+    </row>
+    <row r="57" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B57" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="54"/>
-      <c r="N48" s="54"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="55"/>
-    </row>
-    <row r="49">
-      <c r="B49" s="21" t="s">
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="46"/>
+      <c r="P57" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="54"/>
-      <c r="N49" s="54"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="55"/>
-    </row>
-    <row r="50">
-      <c r="B50" s="21" t="s">
+      <c r="Q57" s="42"/>
+    </row>
+    <row r="58" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B58" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="54"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="55"/>
-    </row>
-    <row r="51">
-      <c r="B51" s="21" t="s">
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="46"/>
+      <c r="O58" s="46"/>
+      <c r="P58" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q58" s="42"/>
+    </row>
+    <row r="59" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B59" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="55"/>
-    </row>
-    <row r="52">
-      <c r="B52" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="54"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="55"/>
-    </row>
-    <row r="53">
-      <c r="B53" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="54"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="55"/>
-    </row>
-    <row r="54">
-      <c r="B54" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="54"/>
-      <c r="N54" s="54"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="55"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="54"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q55" s="55"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="B56" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="57"/>
-      <c r="K56" s="57"/>
-      <c r="L56" s="57"/>
-      <c r="M56" s="57"/>
-      <c r="N56" s="57"/>
-      <c r="O56" s="57"/>
-      <c r="P56" s="58"/>
-      <c r="Q56" s="58"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="53"/>
-      <c r="M57" s="54"/>
-      <c r="N57" s="54"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q57" s="55"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="B58" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="48"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="53"/>
-      <c r="M58" s="54"/>
-      <c r="N58" s="54"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="21"/>
-      <c r="Q58" s="55"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="48"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="53"/>
-      <c r="M59" s="54"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="21"/>
-      <c r="Q59" s="55"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="59"/>
+      <c r="M59" s="59"/>
+      <c r="N59" s="59"/>
+      <c r="O59" s="59"/>
+      <c r="P59" s="59"/>
+      <c r="Q59" s="60"/>
+    </row>
+    <row r="60" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B60" s="47"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
       <c r="G60" s="48"/>
       <c r="H60" s="48"/>
       <c r="I60" s="48"/>
       <c r="J60" s="48"/>
-      <c r="K60" s="53"/>
-      <c r="L60" s="53"/>
-      <c r="M60" s="54"/>
-      <c r="N60" s="54"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="55"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
+      <c r="K60" s="48"/>
+      <c r="L60" s="48"/>
+      <c r="M60" s="48"/>
+      <c r="N60" s="48"/>
+      <c r="O60" s="48"/>
+      <c r="P60" s="48"/>
+      <c r="Q60" s="48"/>
+    </row>
+    <row r="61" spans="2:17" ht="15.75" customHeight="1">
       <c r="B61" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="30"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="B62" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="33"/>
-      <c r="Q62" s="33"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="59"/>
-      <c r="P63" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q63" s="55"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="59"/>
-      <c r="N64" s="59"/>
-      <c r="O64" s="59"/>
-      <c r="P64" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q64" s="55"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="29"/>
-      <c r="O65" s="29"/>
-      <c r="P65" s="29"/>
-      <c r="Q65" s="30"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="60"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
-      <c r="I66" s="61"/>
-      <c r="J66" s="61"/>
-      <c r="K66" s="61"/>
-      <c r="L66" s="61"/>
-      <c r="M66" s="61"/>
-      <c r="N66" s="61"/>
-      <c r="O66" s="61"/>
-      <c r="P66" s="61"/>
-      <c r="Q66" s="61"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="C67" s="61"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="61"/>
-      <c r="K67" s="61"/>
-      <c r="L67" s="61"/>
-      <c r="M67" s="61"/>
-      <c r="N67" s="61"/>
-      <c r="O67" s="61"/>
-      <c r="P67" s="61"/>
-      <c r="Q67" s="61"/>
-    </row>
+        <v>81</v>
+      </c>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="48"/>
+      <c r="L61" s="48"/>
+      <c r="M61" s="48"/>
+      <c r="N61" s="48"/>
+      <c r="O61" s="48"/>
+      <c r="P61" s="48"/>
+      <c r="Q61" s="48"/>
+    </row>
+    <row r="62" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="63" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B63" s="50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B64" s="51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
     <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="B69" s="63" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="B70" s="64" t="s">
-        <v>100</v>
-      </c>
-    </row>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1"/>
     <row r="73" ht="15.75" customHeight="1"/>
@@ -3320,34 +3340,26 @@
     <row r="1024" ht="15.75" customHeight="1"/>
     <row r="1025" ht="15.75" customHeight="1"/>
     <row r="1026" ht="15.75" customHeight="1"/>
-    <row r="1027" ht="15.75" customHeight="1"/>
-    <row r="1028" ht="15.75" customHeight="1"/>
-    <row r="1029" ht="15.75" customHeight="1"/>
-    <row r="1030" ht="15.75" customHeight="1"/>
-    <row r="1031" ht="15.75" customHeight="1"/>
-    <row r="1032" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="C2:Q2"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:Q4"/>
     <mergeCell ref="C5:Q5"/>
     <mergeCell ref="I6:O6"/>
-    <mergeCell ref="B61:Q61"/>
-    <mergeCell ref="B65:Q65"/>
+    <mergeCell ref="B55:Q55"/>
+    <mergeCell ref="B59:Q59"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="C8:Q8"/>
     <mergeCell ref="C9:Q9"/>
     <mergeCell ref="B21:Q21"/>
-    <mergeCell ref="B45:Q45"/>
+    <mergeCell ref="B39:Q39"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="C2:Q2"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:Q4"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Desarrollo/Artemis/Gestión y Negocio/Artemis-CP.xlsx
+++ b/Desarrollo/Artemis/Gestión y Negocio/Artemis-CP.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ever\Desktop\UNMSM\GCS\ABSoftware\Desarrollo\Artemis\Gestión y Negocio\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC38666-D99F-49E3-AEC8-3CAED180F633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="102">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -285,43 +279,64 @@
     <t>• = Alt + 7, 11pts</t>
   </si>
   <si>
-    <t>Especificación de requisito 01: Crear cuenta en Artemis</t>
-  </si>
-  <si>
-    <t>Especificación de requisito 02: Iniciar y Cerrar sesión</t>
-  </si>
-  <si>
-    <t>Especificación de requisito 03: Modificar perfil</t>
-  </si>
-  <si>
-    <t>Especificación de requisito 04: Subir una obra</t>
-  </si>
-  <si>
-    <t>Especificación de requisito 05: Comentar una obra</t>
-  </si>
-  <si>
-    <t>Especificación de requisito 06:Dar like/dislike a una obra</t>
-  </si>
-  <si>
-    <t>Especificación de requisito 07: Editar/actualizar obra</t>
-  </si>
-  <si>
-    <t>Especificación de requisito 08: Eliminar una obra propia</t>
-  </si>
-  <si>
-    <t>Especificación de requisito 09: Descargar versiones antiguas de las obras</t>
-  </si>
-  <si>
     <t>3.0</t>
   </si>
   <si>
     <t>Modificación post 1era revición</t>
+  </si>
+  <si>
+    <t>Especificación de requisito 01: Creación de Cuenta</t>
+  </si>
+  <si>
+    <t>Especificación de requisito 02: Buscar Obra o Tag</t>
+  </si>
+  <si>
+    <t>Especificación de requisito 03: Visualizar Obra</t>
+  </si>
+  <si>
+    <t>Especificación de requisito 04: Iniciar Sesión</t>
+  </si>
+  <si>
+    <t>Especificación de requisito 05: Comentar Obra</t>
+  </si>
+  <si>
+    <t>Especificación de requisito 06:Dar like o dislike a una obra</t>
+  </si>
+  <si>
+    <t>Especificación de requisito 07: Modificar Perfil</t>
+  </si>
+  <si>
+    <t>Especificación de requisito 08: Seguir a un artista</t>
+  </si>
+  <si>
+    <t>Especificación de requisito 09: Reportar Obra</t>
+  </si>
+  <si>
+    <t>Especificación de requisito 10: Cerrar Sesión</t>
+  </si>
+  <si>
+    <t>Especificación de requisito 11: Crear Obra</t>
+  </si>
+  <si>
+    <t>Especificación de requisito 12: Modificar Obra</t>
+  </si>
+  <si>
+    <t>Especificación de requisito 13: Subir nueva Versión</t>
+  </si>
+  <si>
+    <t>Especificación de requisito 14: Crear Carpeta</t>
+  </si>
+  <si>
+    <t>Especificación de requisito 15: Ver Versiones</t>
+  </si>
+  <si>
+    <t>Especificación de requisito 16: Compartir Obra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -574,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -719,19 +734,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -751,6 +758,15 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -966,224 +982,224 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Q1026"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Q1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.9140625" customWidth="1"/>
-    <col min="2" max="2" width="68.9140625" customWidth="1"/>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="2" max="2" width="68.875" customWidth="1"/>
     <col min="3" max="15" width="4" customWidth="1"/>
-    <col min="16" max="16" width="33.6640625" customWidth="1"/>
+    <col min="16" max="16" width="33.625" customWidth="1"/>
     <col min="17" max="17" width="11.25" customWidth="1"/>
-    <col min="18" max="26" width="9.4140625" customWidth="1"/>
+    <col min="18" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="29.5">
-      <c r="B1" s="52" t="s">
+    <row r="1" spans="2:17" ht="48.75">
+      <c r="B1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-    </row>
-    <row r="2" spans="2:17" ht="14">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+    </row>
+    <row r="2" spans="2:17" ht="18">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-    </row>
-    <row r="3" spans="2:17" ht="14">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+    </row>
+    <row r="3" spans="2:17" ht="18">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-    </row>
-    <row r="4" spans="2:17" ht="14">
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+    </row>
+    <row r="4" spans="2:17" ht="18">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-    </row>
-    <row r="5" spans="2:17" ht="15.5">
+      <c r="C4" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+    </row>
+    <row r="5" spans="2:17" ht="18.75">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="56" t="str">
+      <c r="C5" s="53" t="str">
         <f>B12</f>
         <v>Gestión y Negocio</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-    </row>
-    <row r="6" spans="2:17" ht="15.5">
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+    </row>
+    <row r="6" spans="2:17" ht="18.75">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="57" t="s">
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="2:17" ht="15.5">
+    <row r="7" spans="2:17" ht="24.75">
       <c r="B7" s="5"/>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="61" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="2:17" ht="14">
+    <row r="8" spans="2:17" ht="18">
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="60">
         <f>DATE(2020,10,28)</f>
         <v>44132</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-    </row>
-    <row r="9" spans="2:17" ht="14">
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+    </row>
+    <row r="9" spans="2:17" ht="18">
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="61">
         <v>44216</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
     </row>
     <row r="10" spans="2:17" ht="19.5" customHeight="1">
       <c r="B10" s="5"/>
@@ -1253,7 +1269,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="14.5">
+    <row r="12" spans="2:17" ht="18">
       <c r="B12" s="8" t="s">
         <v>30</v>
       </c>
@@ -1273,7 +1289,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="2:17" ht="15.5">
+    <row r="13" spans="2:17" ht="18">
       <c r="B13" s="11" t="s">
         <v>31</v>
       </c>
@@ -1301,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="14.5">
+    <row r="14" spans="2:17" ht="18">
       <c r="B14" s="16" t="s">
         <v>34</v>
       </c>
@@ -1325,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="14.5">
+    <row r="15" spans="2:17" ht="18">
       <c r="B15" s="16" t="s">
         <v>36</v>
       </c>
@@ -1349,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="14.5">
+    <row r="16" spans="2:17" ht="18">
       <c r="B16" s="19" t="s">
         <v>37</v>
       </c>
@@ -1373,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="14.5">
+    <row r="17" spans="2:17" ht="18">
       <c r="B17" s="19" t="s">
         <v>38</v>
       </c>
@@ -1397,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="14.5">
+    <row r="18" spans="2:17" ht="18">
       <c r="B18" s="19" t="s">
         <v>39</v>
       </c>
@@ -1421,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="15.5">
+    <row r="19" spans="2:17" ht="18">
       <c r="B19" s="11" t="s">
         <v>40</v>
       </c>
@@ -1447,7 +1463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="15.5">
+    <row r="20" spans="2:17" ht="18">
       <c r="B20" s="11" t="s">
         <v>42</v>
       </c>
@@ -1475,27 +1491,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="14">
-      <c r="B21" s="64" t="s">
+    <row r="21" spans="2:17" ht="24">
+      <c r="B21" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="60"/>
-    </row>
-    <row r="22" spans="2:17" ht="14">
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="58"/>
+    </row>
+    <row r="22" spans="2:17" ht="18">
       <c r="B22" s="8" t="s">
         <v>45</v>
       </c>
@@ -1515,13 +1531,15 @@
       <c r="P22" s="23"/>
       <c r="Q22" s="23"/>
     </row>
-    <row r="23" spans="2:17" ht="15.5">
+    <row r="23" spans="2:17" ht="18">
       <c r="B23" s="30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="25"/>
+      <c r="E23" s="33" t="s">
+        <v>32</v>
+      </c>
       <c r="F23" s="25"/>
       <c r="G23" s="24"/>
       <c r="H23" s="20"/>
@@ -1539,13 +1557,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="15.5">
+    <row r="24" spans="2:17" ht="18">
       <c r="B24" s="31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="25"/>
+      <c r="E24" s="33" t="s">
+        <v>32</v>
+      </c>
       <c r="F24" s="25"/>
       <c r="G24" s="24"/>
       <c r="H24" s="20"/>
@@ -1563,13 +1583,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:17" ht="15.5">
+    <row r="25" spans="2:17" ht="18">
       <c r="B25" s="30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="25"/>
+      <c r="E25" s="33" t="s">
+        <v>32</v>
+      </c>
       <c r="F25" s="25"/>
       <c r="G25" s="24"/>
       <c r="H25" s="20"/>
@@ -1587,13 +1609,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="15.5">
+    <row r="26" spans="2:17" ht="18">
       <c r="B26" s="30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="25"/>
+      <c r="E26" s="33" t="s">
+        <v>32</v>
+      </c>
       <c r="F26" s="25"/>
       <c r="G26" s="24"/>
       <c r="H26" s="20"/>
@@ -1611,13 +1635,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:17" ht="15.5">
+    <row r="27" spans="2:17" ht="18">
       <c r="B27" s="30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="25"/>
+      <c r="E27" s="33" t="s">
+        <v>32</v>
+      </c>
       <c r="F27" s="25"/>
       <c r="G27" s="24"/>
       <c r="H27" s="20"/>
@@ -1635,13 +1661,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="15.5">
+    <row r="28" spans="2:17" ht="18">
       <c r="B28" s="30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="25"/>
+      <c r="E28" s="33" t="s">
+        <v>32</v>
+      </c>
       <c r="F28" s="25"/>
       <c r="G28" s="24"/>
       <c r="H28" s="20"/>
@@ -1659,13 +1687,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:17" ht="15.5">
+    <row r="29" spans="2:17" ht="18">
       <c r="B29" s="30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="25"/>
+      <c r="E29" s="33" t="s">
+        <v>32</v>
+      </c>
       <c r="F29" s="25"/>
       <c r="G29" s="24"/>
       <c r="H29" s="20"/>
@@ -1683,13 +1713,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="15.5">
+    <row r="30" spans="2:17" ht="18">
       <c r="B30" s="30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="25"/>
+      <c r="E30" s="33" t="s">
+        <v>32</v>
+      </c>
       <c r="F30" s="25"/>
       <c r="G30" s="24"/>
       <c r="H30" s="20"/>
@@ -1707,14 +1739,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:17" ht="15.5">
+    <row r="31" spans="2:17" ht="18">
       <c r="B31" s="30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
+      <c r="F31" s="33" t="s">
+        <v>32</v>
+      </c>
       <c r="G31" s="24"/>
       <c r="H31" s="20"/>
       <c r="I31" s="12"/>
@@ -1731,359 +1765,401 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="15.5">
-      <c r="B32" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="33" t="s">
+    <row r="32" spans="2:17" s="52" customFormat="1" ht="18">
+      <c r="B32" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="24"/>
       <c r="G32" s="24"/>
       <c r="H32" s="20"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="14" t="s">
-        <v>47</v>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="42" t="s">
+        <v>43</v>
       </c>
       <c r="Q32" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:17" ht="15.5">
-      <c r="B33" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="24"/>
+    <row r="33" spans="2:17" s="52" customFormat="1" ht="18">
+      <c r="B33" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="33" t="s">
+        <v>32</v>
+      </c>
       <c r="G33" s="24"/>
       <c r="H33" s="20"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="14"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="42" t="s">
+        <v>43</v>
+      </c>
       <c r="Q33" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:17" ht="15.5">
-      <c r="B34" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="24"/>
+    <row r="34" spans="2:17" s="52" customFormat="1" ht="18">
+      <c r="B34" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="33" t="s">
+        <v>32</v>
+      </c>
       <c r="G34" s="24"/>
       <c r="H34" s="20"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="14"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="42" t="s">
+        <v>43</v>
+      </c>
       <c r="Q34" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:17" ht="15.5">
-      <c r="B35" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q35" s="15">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17" ht="15.5">
-      <c r="B36" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q36" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" ht="15.5">
-      <c r="B37" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="14" t="s">
+    <row r="35" spans="2:17" s="52" customFormat="1" ht="18">
+      <c r="B35" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="24"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q35" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" s="52" customFormat="1" ht="18">
+      <c r="B36" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="24"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q36" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" s="52" customFormat="1" ht="18">
+      <c r="B37" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="24"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q37" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" s="52" customFormat="1" ht="18">
+      <c r="B38" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="24"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q38" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" ht="18">
+      <c r="B39" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="Q37" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:17" ht="15.5">
-      <c r="B38" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q38" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" ht="14">
-      <c r="B39" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="60"/>
-    </row>
-    <row r="40" spans="2:17" ht="14">
-      <c r="B40" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
-    </row>
-    <row r="41" spans="2:17" ht="15.5">
-      <c r="B41" s="14" t="s">
-        <v>59</v>
+      <c r="Q39" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" ht="18">
+      <c r="B40" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" ht="18">
+      <c r="B41" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
+      <c r="E41" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
       <c r="O41" s="12"/>
       <c r="P41" s="14"/>
-      <c r="Q41" s="42"/>
-    </row>
-    <row r="42" spans="2:17" ht="15.5">
+      <c r="Q41" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" ht="18">
       <c r="B42" s="14" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
       <c r="O42" s="12"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="42"/>
-    </row>
-    <row r="43" spans="2:17" ht="15.5">
+      <c r="P42" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q42" s="15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" ht="18">
       <c r="B43" s="14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
       <c r="O43" s="12"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="42"/>
-    </row>
-    <row r="44" spans="2:17" ht="15.5">
-      <c r="B44" s="14" t="s">
-        <v>62</v>
+      <c r="P43" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" ht="18">
+      <c r="B44" s="27" t="s">
+        <v>54</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
       <c r="O44" s="12"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="42"/>
-    </row>
-    <row r="45" spans="2:17" ht="15.5">
+      <c r="P44" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q44" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" ht="18">
       <c r="B45" s="14" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
+      <c r="F45" s="36"/>
       <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
       <c r="O45" s="12"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="42"/>
-    </row>
-    <row r="46" spans="2:17" ht="15.5">
-      <c r="B46" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="42"/>
-    </row>
-    <row r="47" spans="2:17" ht="15.5">
-      <c r="B47" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="42"/>
-    </row>
-    <row r="48" spans="2:17" ht="15.5">
+      <c r="P45" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" ht="20.25">
+      <c r="B46" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="57"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="57"/>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="58"/>
+    </row>
+    <row r="47" spans="2:17" ht="18">
+      <c r="B47" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
+    </row>
+    <row r="48" spans="2:17" ht="18">
       <c r="B48" s="14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -2101,9 +2177,9 @@
       <c r="P48" s="14"/>
       <c r="Q48" s="42"/>
     </row>
-    <row r="49" spans="2:17" ht="15.75" customHeight="1">
+    <row r="49" spans="2:17" ht="18">
       <c r="B49" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -2118,34 +2194,32 @@
       <c r="M49" s="41"/>
       <c r="N49" s="41"/>
       <c r="O49" s="12"/>
-      <c r="P49" s="43" t="s">
-        <v>68</v>
-      </c>
+      <c r="P49" s="14"/>
       <c r="Q49" s="42"/>
     </row>
-    <row r="50" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B50" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="44"/>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="45"/>
-    </row>
-    <row r="51" spans="2:17" ht="15.75" customHeight="1">
+    <row r="50" spans="2:17" ht="18">
+      <c r="B50" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="42"/>
+    </row>
+    <row r="51" spans="2:17" ht="18">
       <c r="B51" s="14" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
@@ -2160,14 +2234,12 @@
       <c r="M51" s="41"/>
       <c r="N51" s="41"/>
       <c r="O51" s="12"/>
-      <c r="P51" s="14" t="s">
-        <v>71</v>
-      </c>
+      <c r="P51" s="14"/>
       <c r="Q51" s="42"/>
     </row>
-    <row r="52" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B52" s="27" t="s">
-        <v>72</v>
+    <row r="52" spans="2:17" ht="18">
+      <c r="B52" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -2185,9 +2257,9 @@
       <c r="P52" s="14"/>
       <c r="Q52" s="42"/>
     </row>
-    <row r="53" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B53" s="27" t="s">
-        <v>73</v>
+    <row r="53" spans="2:17" ht="18">
+      <c r="B53" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -2205,9 +2277,9 @@
       <c r="P53" s="14"/>
       <c r="Q53" s="42"/>
     </row>
-    <row r="54" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B54" s="27" t="s">
-        <v>74</v>
+    <row r="54" spans="2:17" ht="18">
+      <c r="B54" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -2225,175 +2297,312 @@
       <c r="P54" s="14"/>
       <c r="Q54" s="42"/>
     </row>
-    <row r="55" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B55" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="59"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="59"/>
-      <c r="N55" s="59"/>
-      <c r="O55" s="59"/>
-      <c r="P55" s="59"/>
-      <c r="Q55" s="60"/>
+    <row r="55" spans="2:17" ht="18">
+      <c r="B55" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="42"/>
     </row>
     <row r="56" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B56" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
+      <c r="B56" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q56" s="42"/>
     </row>
     <row r="57" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B57" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="46"/>
-      <c r="P57" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q57" s="42"/>
+      <c r="B57" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="44"/>
+      <c r="O57" s="44"/>
+      <c r="P57" s="45"/>
+      <c r="Q57" s="45"/>
     </row>
     <row r="58" spans="2:17" ht="15.75" customHeight="1">
       <c r="B58" s="14" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="46"/>
-      <c r="O58" s="46"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="41"/>
+      <c r="O58" s="12"/>
       <c r="P58" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q58" s="42"/>
+    </row>
+    <row r="59" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B59" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="41"/>
+      <c r="N59" s="41"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="42"/>
+    </row>
+    <row r="60" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B60" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="42"/>
+    </row>
+    <row r="61" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B61" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="41"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="42"/>
+    </row>
+    <row r="62" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B62" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="57"/>
+      <c r="L62" s="57"/>
+      <c r="M62" s="57"/>
+      <c r="N62" s="57"/>
+      <c r="O62" s="57"/>
+      <c r="P62" s="57"/>
+      <c r="Q62" s="58"/>
+    </row>
+    <row r="63" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B63" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
+    </row>
+    <row r="64" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B64" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="46"/>
+      <c r="P64" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q64" s="42"/>
+    </row>
+    <row r="65" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B65" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="46"/>
+      <c r="O65" s="46"/>
+      <c r="P65" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Q58" s="42"/>
-    </row>
-    <row r="59" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B59" s="58" t="s">
+      <c r="Q65" s="42"/>
+    </row>
+    <row r="66" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B66" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="59"/>
-      <c r="L59" s="59"/>
-      <c r="M59" s="59"/>
-      <c r="N59" s="59"/>
-      <c r="O59" s="59"/>
-      <c r="P59" s="59"/>
-      <c r="Q59" s="60"/>
-    </row>
-    <row r="60" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B60" s="47"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="48"/>
-      <c r="L60" s="48"/>
-      <c r="M60" s="48"/>
-      <c r="N60" s="48"/>
-      <c r="O60" s="48"/>
-      <c r="P60" s="48"/>
-      <c r="Q60" s="48"/>
-    </row>
-    <row r="61" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B61" s="49" t="s">
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="57"/>
+      <c r="K66" s="57"/>
+      <c r="L66" s="57"/>
+      <c r="M66" s="57"/>
+      <c r="N66" s="57"/>
+      <c r="O66" s="57"/>
+      <c r="P66" s="57"/>
+      <c r="Q66" s="58"/>
+    </row>
+    <row r="67" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B67" s="47"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="48"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="48"/>
+      <c r="N67" s="48"/>
+      <c r="O67" s="48"/>
+      <c r="P67" s="48"/>
+      <c r="Q67" s="48"/>
+    </row>
+    <row r="68" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B68" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="48"/>
-      <c r="K61" s="48"/>
-      <c r="L61" s="48"/>
-      <c r="M61" s="48"/>
-      <c r="N61" s="48"/>
-      <c r="O61" s="48"/>
-      <c r="P61" s="48"/>
-      <c r="Q61" s="48"/>
-    </row>
-    <row r="62" spans="2:17" ht="15.75" customHeight="1"/>
-    <row r="63" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B63" s="50" t="s">
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="48"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="48"/>
+      <c r="O68" s="48"/>
+      <c r="P68" s="48"/>
+      <c r="Q68" s="48"/>
+    </row>
+    <row r="69" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="70" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B70" s="50" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B64" s="51" t="s">
+    <row r="71" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B71" s="51" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="72" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="73" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="74" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="75" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="76" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="77" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="78" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="79" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="80" spans="2:17" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -3340,24 +3549,31 @@
     <row r="1024" ht="15.75" customHeight="1"/>
     <row r="1025" ht="15.75" customHeight="1"/>
     <row r="1026" ht="15.75" customHeight="1"/>
+    <row r="1027" ht="15.75" customHeight="1"/>
+    <row r="1028" ht="15.75" customHeight="1"/>
+    <row r="1029" ht="15.75" customHeight="1"/>
+    <row r="1030" ht="15.75" customHeight="1"/>
+    <row r="1031" ht="15.75" customHeight="1"/>
+    <row r="1032" ht="15.75" customHeight="1"/>
+    <row r="1033" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="C2:Q2"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:Q4"/>
     <mergeCell ref="C5:Q5"/>
     <mergeCell ref="I6:O6"/>
-    <mergeCell ref="B55:Q55"/>
-    <mergeCell ref="B59:Q59"/>
+    <mergeCell ref="B62:Q62"/>
+    <mergeCell ref="B66:Q66"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="C8:Q8"/>
     <mergeCell ref="C9:Q9"/>
     <mergeCell ref="B21:Q21"/>
-    <mergeCell ref="B39:Q39"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="C2:Q2"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="B46:Q46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
